--- a/data_example_22.03.2022.xlsx
+++ b/data_example_22.03.2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.N.Sozontov\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\!_R10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BD519C-764D-4507-89DC-224145F6B282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5386D63B-B30B-409B-A583-2BAB6CE0B319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{276ED457-7E3E-4F45-B4DE-2C2DA33A4CD5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{276ED457-7E3E-4F45-B4DE-2C2DA33A4CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">samples!$A$1:$H$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">taxa!$A$1:$O$43</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -641,12 +641,6 @@
     <t>biotop</t>
   </si>
   <si>
-    <t>coniferous forest (regular)</t>
-  </si>
-  <si>
-    <t>coniferous forest (post-fire succession)</t>
-  </si>
-  <si>
     <t>Genus</t>
   </si>
   <si>
@@ -735,6 +729,12 @@
   </si>
   <si>
     <t>temperate</t>
+  </si>
+  <si>
+    <t>post-fire forest</t>
+  </si>
+  <si>
+    <t>regular forest</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0DCC3D-B8E5-4279-BA55-31DAFB8144CE}">
   <dimension ref="A1:AQ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -8652,8 +8652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5231CD11-CE46-40D2-9571-E685C366E4D8}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8685,7 +8685,7 @@
         <v>184</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -8696,7 +8696,7 @@
         <v>2001</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
         <v>195</v>
@@ -8722,7 +8722,7 @@
         <v>2001</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
         <v>195</v>
@@ -8748,7 +8748,7 @@
         <v>2001</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
         <v>195</v>
@@ -8774,7 +8774,7 @@
         <v>2001</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
         <v>195</v>
@@ -8800,7 +8800,7 @@
         <v>2001</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
         <v>195</v>
@@ -8826,7 +8826,7 @@
         <v>2001</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
         <v>195</v>
@@ -8852,7 +8852,7 @@
         <v>2001</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D8" t="s">
         <v>195</v>
@@ -8875,7 +8875,7 @@
         <v>2001</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D9" t="s">
         <v>196</v>
@@ -8901,7 +8901,7 @@
         <v>2001</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
         <v>196</v>
@@ -8927,7 +8927,7 @@
         <v>2001</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D11" t="s">
         <v>196</v>
@@ -8953,7 +8953,7 @@
         <v>2001</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
         <v>196</v>
@@ -8979,7 +8979,7 @@
         <v>2001</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D13" t="s">
         <v>196</v>
@@ -9005,7 +9005,7 @@
         <v>2001</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D14" t="s">
         <v>196</v>
@@ -9031,7 +9031,7 @@
         <v>2001</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D15" t="s">
         <v>196</v>
@@ -9054,7 +9054,7 @@
         <v>2001</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
         <v>195</v>
@@ -9080,7 +9080,7 @@
         <v>2001</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D17" t="s">
         <v>195</v>
@@ -9106,7 +9106,7 @@
         <v>2001</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D18" t="s">
         <v>195</v>
@@ -9132,7 +9132,7 @@
         <v>2001</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D19" t="s">
         <v>195</v>
@@ -9158,7 +9158,7 @@
         <v>2001</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
         <v>195</v>
@@ -9184,7 +9184,7 @@
         <v>2001</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
         <v>195</v>
@@ -9210,7 +9210,7 @@
         <v>2001</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D22" t="s">
         <v>195</v>
@@ -9233,7 +9233,7 @@
         <v>2001</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D23" t="s">
         <v>196</v>
@@ -9259,7 +9259,7 @@
         <v>2001</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s">
         <v>196</v>
@@ -9285,7 +9285,7 @@
         <v>2001</v>
       </c>
       <c r="C25" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D25" t="s">
         <v>196</v>
@@ -9311,7 +9311,7 @@
         <v>2001</v>
       </c>
       <c r="C26" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D26" t="s">
         <v>196</v>
@@ -9337,7 +9337,7 @@
         <v>2001</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D27" t="s">
         <v>196</v>
@@ -9363,7 +9363,7 @@
         <v>2001</v>
       </c>
       <c r="C28" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D28" t="s">
         <v>196</v>
@@ -9389,7 +9389,7 @@
         <v>2001</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D29" t="s">
         <v>196</v>
@@ -9412,7 +9412,7 @@
         <v>2021</v>
       </c>
       <c r="C30" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D30" t="s">
         <v>197</v>
@@ -9438,7 +9438,7 @@
         <v>2021</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D31" t="s">
         <v>197</v>
@@ -9464,7 +9464,7 @@
         <v>2021</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D32" t="s">
         <v>197</v>
@@ -9490,7 +9490,7 @@
         <v>2021</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D33" t="s">
         <v>197</v>
@@ -9516,7 +9516,7 @@
         <v>2021</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s">
         <v>197</v>
@@ -9542,7 +9542,7 @@
         <v>2021</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D35" t="s">
         <v>197</v>
@@ -9568,7 +9568,7 @@
         <v>2021</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D36" t="s">
         <v>197</v>
@@ -9591,7 +9591,7 @@
         <v>2021</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>198</v>
@@ -9617,7 +9617,7 @@
         <v>2021</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>198</v>
@@ -9643,7 +9643,7 @@
         <v>2021</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>198</v>
@@ -9669,7 +9669,7 @@
         <v>2021</v>
       </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>198</v>
@@ -9695,7 +9695,7 @@
         <v>2021</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>198</v>
@@ -9721,7 +9721,7 @@
         <v>2021</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>198</v>
@@ -9747,7 +9747,7 @@
         <v>2021</v>
       </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>198</v>
@@ -9770,7 +9770,7 @@
         <v>2021</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D44" t="s">
         <v>197</v>
@@ -9796,7 +9796,7 @@
         <v>2021</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D45" t="s">
         <v>197</v>
@@ -9822,7 +9822,7 @@
         <v>2021</v>
       </c>
       <c r="C46" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D46" t="s">
         <v>197</v>
@@ -9848,7 +9848,7 @@
         <v>2021</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D47" t="s">
         <v>197</v>
@@ -9874,7 +9874,7 @@
         <v>2021</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D48" t="s">
         <v>197</v>
@@ -9900,7 +9900,7 @@
         <v>2021</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D49" t="s">
         <v>197</v>
@@ -9926,7 +9926,7 @@
         <v>2021</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D50" t="s">
         <v>197</v>
@@ -9949,7 +9949,7 @@
         <v>2021</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>198</v>
@@ -9975,7 +9975,7 @@
         <v>2021</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>198</v>
@@ -10001,7 +10001,7 @@
         <v>2021</v>
       </c>
       <c r="C53" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>198</v>
@@ -10027,7 +10027,7 @@
         <v>2021</v>
       </c>
       <c r="C54" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>198</v>
@@ -10053,7 +10053,7 @@
         <v>2021</v>
       </c>
       <c r="C55" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>198</v>
@@ -10079,7 +10079,7 @@
         <v>2021</v>
       </c>
       <c r="C56" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>198</v>
@@ -10105,7 +10105,7 @@
         <v>2021</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>198</v>
@@ -10145,16 +10145,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>1</v>
@@ -10163,7 +10163,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>3</v>
@@ -10172,13 +10172,13 @@
         <v>4</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -10198,25 +10198,25 @@
         <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" t="s">
         <v>216</v>
-      </c>
-      <c r="H2" t="s">
-        <v>218</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -10240,25 +10240,25 @@
         <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
@@ -10282,25 +10282,25 @@
         <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" t="s">
         <v>220</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>222</v>
       </c>
-      <c r="J4" t="s">
-        <v>224</v>
-      </c>
       <c r="K4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -10324,25 +10324,25 @@
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" t="s">
         <v>216</v>
       </c>
-      <c r="H5" t="s">
-        <v>218</v>
-      </c>
       <c r="I5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J5" t="s">
         <v>222</v>
       </c>
-      <c r="J5" t="s">
-        <v>224</v>
-      </c>
       <c r="K5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L5" t="s">
         <v>9</v>
@@ -10368,25 +10368,25 @@
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -10410,25 +10410,25 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I7" t="s">
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L7" t="s">
         <v>15</v>
@@ -10454,25 +10454,25 @@
         <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I8" t="s">
         <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L8" t="s">
         <v>34</v>
@@ -10498,25 +10498,25 @@
         <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L9" t="s">
         <v>15</v>
@@ -10540,25 +10540,25 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" t="s">
         <v>216</v>
-      </c>
-      <c r="H10" t="s">
-        <v>218</v>
       </c>
       <c r="I10" t="s">
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L10" t="s">
         <v>9</v>
@@ -10584,25 +10584,25 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" t="s">
         <v>214</v>
       </c>
-      <c r="G11" t="s">
-        <v>216</v>
-      </c>
       <c r="H11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L11" t="s">
         <v>9</v>
@@ -10626,25 +10626,25 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F12" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" t="s">
         <v>214</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>216</v>
-      </c>
-      <c r="H12" t="s">
-        <v>218</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L12" t="s">
         <v>9</v>
@@ -10670,25 +10670,25 @@
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I13" t="s">
         <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L13" t="s">
         <v>9</v>
@@ -10712,25 +10712,25 @@
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L14" t="s">
         <v>9</v>
@@ -10756,25 +10756,25 @@
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L15" t="s">
         <v>15</v>
@@ -10798,25 +10798,25 @@
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I16" t="s">
         <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L16" t="s">
         <v>34</v>
@@ -10840,25 +10840,25 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L17" t="s">
         <v>34</v>
@@ -10882,25 +10882,25 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I18" t="s">
         <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s">
         <v>34</v>
@@ -10924,25 +10924,25 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I19" t="s">
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s">
         <v>34</v>
@@ -10968,25 +10968,25 @@
         <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
+        <v>214</v>
+      </c>
+      <c r="H20" t="s">
         <v>216</v>
-      </c>
-      <c r="H20" t="s">
-        <v>218</v>
       </c>
       <c r="I20" t="s">
         <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s">
         <v>34</v>
@@ -11010,25 +11010,25 @@
         <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I21" t="s">
         <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
         <v>34</v>
@@ -11052,25 +11052,25 @@
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
         <v>9</v>
@@ -11096,25 +11096,25 @@
         <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" t="s">
         <v>222</v>
       </c>
-      <c r="J23" t="s">
-        <v>224</v>
-      </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
         <v>34</v>
@@ -11138,25 +11138,25 @@
         <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I24" t="s">
         <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s">
         <v>9</v>
@@ -11180,25 +11180,25 @@
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I25" t="s">
         <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s">
         <v>15</v>
@@ -11222,25 +11222,25 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I26" t="s">
         <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s">
         <v>9</v>
@@ -11264,25 +11264,25 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H27" t="s">
+        <v>218</v>
+      </c>
+      <c r="I27" t="s">
         <v>220</v>
       </c>
-      <c r="I27" t="s">
-        <v>222</v>
-      </c>
       <c r="J27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s">
         <v>9</v>
@@ -11306,25 +11306,25 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I28" t="s">
         <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s">
         <v>15</v>
@@ -11348,25 +11348,25 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I29" t="s">
         <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L29" t="s">
         <v>15</v>
@@ -11390,25 +11390,25 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H30" t="s">
         <v>216</v>
       </c>
-      <c r="H30" t="s">
-        <v>218</v>
-      </c>
       <c r="I30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L30" t="s">
         <v>15</v>
@@ -11432,25 +11432,25 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I31" t="s">
         <v>24</v>
       </c>
       <c r="J31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L31" t="s">
         <v>34</v>
@@ -11476,25 +11476,25 @@
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I32" t="s">
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L32" t="s">
         <v>34</v>
@@ -11518,25 +11518,25 @@
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F33" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" t="s">
         <v>213</v>
       </c>
-      <c r="G33" t="s">
-        <v>215</v>
-      </c>
       <c r="H33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I33" t="s">
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L33" t="s">
         <v>15</v>
@@ -11560,25 +11560,25 @@
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F34" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" t="s">
         <v>213</v>
       </c>
-      <c r="G34" t="s">
-        <v>215</v>
-      </c>
       <c r="H34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I34" t="s">
         <v>8</v>
       </c>
       <c r="J34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L34" t="s">
         <v>15</v>
@@ -11602,25 +11602,25 @@
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I35" t="s">
+        <v>220</v>
+      </c>
+      <c r="J35" t="s">
         <v>222</v>
       </c>
-      <c r="J35" t="s">
-        <v>224</v>
-      </c>
       <c r="K35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L35" t="s">
         <v>34</v>
@@ -11644,25 +11644,25 @@
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I36" t="s">
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L36" t="s">
         <v>34</v>
@@ -11686,25 +11686,25 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I37" t="s">
         <v>8</v>
       </c>
       <c r="J37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L37" t="s">
         <v>15</v>
@@ -11730,25 +11730,25 @@
         <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I38" t="s">
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L38" t="s">
         <v>34</v>
@@ -11772,25 +11772,25 @@
         <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I39" t="s">
         <v>8</v>
       </c>
       <c r="J39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L39" t="s">
         <v>15</v>
@@ -11814,25 +11814,25 @@
         <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H40" t="s">
         <v>216</v>
       </c>
-      <c r="H40" t="s">
-        <v>218</v>
-      </c>
       <c r="I40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L40" t="s">
         <v>9</v>
@@ -11856,25 +11856,25 @@
         <v>55</v>
       </c>
       <c r="E41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I41" t="s">
         <v>8</v>
       </c>
       <c r="J41" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K41" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L41" t="s">
         <v>34</v>
@@ -11898,25 +11898,25 @@
         <v>55</v>
       </c>
       <c r="E42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F42" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I42" t="s">
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L42" t="s">
         <v>15</v>
@@ -11940,25 +11940,25 @@
         <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G43" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H43" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I43" t="s">
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L43" t="s">
         <v>9</v>
